--- a/doc/SprintReviewProtocols/Semester#4/Sprint_Review_Protocol#12.xlsx
+++ b/doc/SprintReviewProtocols/Semester#4/Sprint_Review_Protocol#12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25070"/>
+    <workbookView windowWidth="25600" windowHeight="10670"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -162,12 +162,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * \-_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * \-??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +219,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,6 +267,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,72 +333,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,52 +348,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,187 +388,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +724,54 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -755,65 +790,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -837,151 +813,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1361,7 +1348,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -1623,16 +1610,14 @@
         <v>2</v>
       </c>
       <c r="D18" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="21">
-        <v>1</v>
-      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8">
@@ -1783,7 +1768,7 @@
       <c r="D25" s="22"/>
       <c r="E25" s="22">
         <f>SUM(E16:E24)</f>
-        <v>-6.5</v>
+        <v>-4.5</v>
       </c>
       <c r="F25" s="22">
         <f>COUNT(F16:F24)</f>
@@ -1791,7 +1776,7 @@
       </c>
       <c r="G25" s="22">
         <f>COUNT(G16:G24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="22"/>
     </row>
